--- a/src/test/java/resources/测试记录表.xlsx
+++ b/src/test/java/resources/测试记录表.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="12255" activeTab="2"/>
+    <workbookView windowHeight="12225" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t xml:space="preserve">测试记  录表      </t>
   </si>
@@ -139,6 +140,23 @@
   <si>
     <t>阿道夫萨达</t>
   </si>
+  <si>
+    <t xml:space="preserve">检  定  结  果1          </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">检  定  结  果  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">              </t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -150,13 +168,19 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="黑体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -343,6 +367,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFFFC000"/>
@@ -568,11 +603,20 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -810,7 +854,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -829,196 +873,207 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="6" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
     <cellStyle name="货币" xfId="2" builtinId="4"/>
@@ -1068,6 +1123,8 @@
     <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规_检定证书格式20051128" xfId="49"/>
+    <cellStyle name="常规_jdzsd" xfId="50"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1363,404 +1420,404 @@
   </cols>
   <sheetData>
     <row r="1" ht="32.25" spans="1:10">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
     </row>
     <row r="2" ht="15.75" spans="1:10">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9" t="s">
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" ht="15.75" spans="1:10">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12" t="s">
+      <c r="A3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="16"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="19"/>
     </row>
     <row r="4" ht="15" spans="1:10">
-      <c r="A4" s="1">
+      <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="8"/>
     </row>
     <row r="5" ht="15" spans="1:10">
-      <c r="A5" s="1">
+      <c r="A5" s="4">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="8"/>
     </row>
     <row r="6" ht="15" spans="1:10">
-      <c r="A6" s="1">
+      <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="17"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="20"/>
     </row>
     <row r="7" ht="15" spans="1:10">
-      <c r="A7" s="1">
+      <c r="A7" s="4">
         <v>4</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="8"/>
     </row>
     <row r="8" ht="15" spans="1:10">
-      <c r="A8" s="1">
+      <c r="A8" s="4">
         <v>5</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="8"/>
     </row>
     <row r="9" ht="15" spans="1:10">
-      <c r="A9" s="1">
+      <c r="A9" s="4">
         <v>6</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="5"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="8"/>
     </row>
     <row r="10" ht="15" spans="1:10">
-      <c r="A10" s="1">
+      <c r="A10" s="4">
         <v>7</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="5"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="8"/>
     </row>
     <row r="11" ht="15" spans="1:10">
-      <c r="A11" s="1">
+      <c r="A11" s="4">
         <v>8</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="8"/>
     </row>
     <row r="12" ht="15" spans="1:10">
-      <c r="A12" s="1">
+      <c r="A12" s="4">
         <v>9</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="8"/>
     </row>
     <row r="13" ht="15" spans="1:10">
-      <c r="A13" s="1">
+      <c r="A13" s="4">
         <v>10</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="8"/>
     </row>
     <row r="14" ht="15" spans="1:10">
-      <c r="A14" s="1">
+      <c r="A14" s="4">
         <v>11</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="8"/>
     </row>
     <row r="15" ht="15" spans="1:10">
-      <c r="A15" s="1">
+      <c r="A15" s="4">
         <v>12</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="8"/>
     </row>
     <row r="16" ht="15" spans="1:10">
-      <c r="A16" s="1">
+      <c r="A16" s="4">
         <v>13</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="8"/>
     </row>
     <row r="17" ht="15" spans="1:10">
-      <c r="A17" s="1">
+      <c r="A17" s="4">
         <v>14</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="8"/>
     </row>
     <row r="18" ht="15" spans="1:10">
-      <c r="A18" s="1">
+      <c r="A18" s="4">
         <v>15</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="8"/>
     </row>
     <row r="19" ht="15" spans="1:10">
-      <c r="A19" s="1">
+      <c r="A19" s="4">
         <v>16</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="8"/>
     </row>
     <row r="20" ht="15" spans="1:10">
-      <c r="A20" s="1">
+      <c r="A20" s="4">
         <v>17</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="8"/>
     </row>
     <row r="21" ht="15" spans="1:10">
-      <c r="A21" s="1">
+      <c r="A21" s="4">
         <v>18</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="8"/>
     </row>
     <row r="22" ht="15" spans="1:10">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="5"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="8"/>
     </row>
     <row r="23" ht="15" spans="1:10">
-      <c r="A23" s="1"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="5"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="8"/>
     </row>
     <row r="24" ht="15" spans="1:10">
-      <c r="A24" s="1"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="5"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="8"/>
     </row>
     <row r="25" ht="15" spans="1:10">
-      <c r="A25" s="1"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="5"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="8"/>
     </row>
     <row r="26" ht="15" spans="1:10">
-      <c r="A26" s="13"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="18"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" ht="14.25"/>
     <row r="39" spans="2:2">
@@ -1845,7 +1902,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" ht="61.5" spans="1:1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1861,7 +1918,7 @@
   <sheetPr/>
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -1871,25 +1928,25 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A1" s="1">
+      <c r="A1" s="4">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="8"/>
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:1">
-      <c r="A2" s="4">
+      <c r="A2" s="7">
         <v>12345678</v>
       </c>
     </row>
@@ -1915,4 +1972,58 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <cols>
+    <col min="1" max="1" width="33.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:J4"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/src/test/java/resources/测试记录表.xlsx
+++ b/src/test/java/resources/测试记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="12225" activeTab="3"/>
+    <workbookView windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,34 @@
 </workbook>
 </file>
 
+<file path=xl/cellimages.xml><?xml version="1.0" encoding="utf-8"?>
+<etc:cellImages xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="ID_37FF147A90E9424DB827EE1F2B5A575E" descr="1547495AAA3"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9182100" cy="8534400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+</etc:cellImages>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
@@ -145,6 +173,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <rFont val="黑体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">检  定  结  果  </t>
     </r>
     <r>
@@ -1147,6 +1181,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>313055</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>182245</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="Snipaste_2024-04-30_16-26-44"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="971550" y="2638425"/>
+          <a:ext cx="1398905" cy="1401445"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1409,12 +1486,13 @@
   <sheetPr/>
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:J4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
+    <col min="4" max="4" width="12.5"/>
     <col min="9" max="9" width="22.875" customWidth="1"/>
     <col min="10" max="10" width="13.75" customWidth="1"/>
   </cols>
@@ -1820,6 +1898,12 @@
       <c r="J26" s="21"/>
     </row>
     <row r="27" ht="14.25"/>
+    <row r="29" ht="69.7" spans="4:4">
+      <c r="D29" t="str">
+        <f>_xlfn.DISPIMG("ID_37FF147A90E9424DB827EE1F2B5A575E",1)</f>
+        <v>=DISPIMG("ID_37FF147A90E9424DB827EE1F2B5A575E",1)</v>
+      </c>
+    </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
         <v>25</v>
@@ -1887,6 +1971,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1979,7 +2064,7 @@
   <sheetPr/>
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>

--- a/src/test/java/resources/测试记录表.xlsx
+++ b/src/test/java/resources/测试记录表.xlsx
@@ -12,6 +12,9 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$J$27</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -407,15 +410,15 @@
     </font>
     <font>
       <b/>
-      <sz val="16"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color rgb="FFFFC000"/>
       <name val="思源黑体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1486,8 +1489,8 @@
   <sheetPr/>
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1969,7 +1972,7 @@
   </conditionalFormatting>
   <printOptions gridLines="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600"/>
+  <pageSetup paperSize="11" orientation="portrait" horizontalDpi="600"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2065,7 +2068,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>

--- a/src/test/java/resources/测试记录表.xlsx
+++ b/src/test/java/resources/测试记录表.xlsx
@@ -199,11 +199,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -1042,7 +1043,7 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1089,6 +1090,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1216,7 +1220,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="971550" y="2638425"/>
+          <a:off x="971550" y="2600325"/>
           <a:ext cx="1398905" cy="1401445"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1490,12 +1494,12 @@
   <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="4" max="4" width="12.5"/>
+    <col min="4" max="4" width="12.625"/>
     <col min="9" max="9" width="22.875" customWidth="1"/>
     <col min="10" max="10" width="13.75" customWidth="1"/>
   </cols>
@@ -1534,7 +1538,7 @@
       <c r="I2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="19" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1558,9 +1562,9 @@
         <v>11</v>
       </c>
       <c r="I3" s="15"/>
-      <c r="J3" s="19"/>
-    </row>
-    <row r="4" ht="15" spans="1:10">
+      <c r="J3" s="20"/>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -1570,7 +1574,9 @@
       <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="16">
+        <v>45838</v>
+      </c>
       <c r="E4" s="5"/>
       <c r="F4" s="6"/>
       <c r="G4" s="5"/>
@@ -1578,7 +1584,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" ht="15" spans="1:10">
+    <row r="5" spans="1:10">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -1612,7 +1618,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="20"/>
+      <c r="J6" s="21"/>
     </row>
     <row r="7" ht="15" spans="1:10">
       <c r="A7" s="4">
@@ -1889,16 +1895,16 @@
       <c r="J25" s="8"/>
     </row>
     <row r="26" ht="15" spans="1:10">
-      <c r="A26" s="16"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="21"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="22"/>
     </row>
     <row r="27" ht="14.25"/>
     <row r="29" ht="69.7" spans="4:4">
